--- a/data_unfiltered/SRA_metadata.xlsx
+++ b/data_unfiltered/SRA_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/boltonp17_ecu_edu/Documents/Manakins/Pipra Brain/PIFI_brain_transcriptome/data_unfiltered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{A53AE572-1E06-405D-B2B8-403686DC11D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1363457D-C952-47C4-8362-8D57A05D2ADD}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{A53AE572-1E06-405D-B2B8-403686DC11D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE891B8A-6A52-4FFF-9CB5-0E9A9F278285}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2061,436 +2061,436 @@
     <t>tissues dissected at death, stored in liquid nitrogen. Brain tissues were cryosectioned and microdissected. Samples were randomized across two library preps using  TruSeq Stranded mRNA Kit.</t>
   </si>
   <si>
-    <t>PFT3_GON_TGGATCGA-GTGCGATA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_POM_CAAGCTAG-ACATAGCG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_TNA_GCTTGTCA-GAACATAC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_AH_GTGTCGGA-GCTTGCGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_AI_ACACTAAG-ATCCATAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_BSTm_GACCTGAA-TTGGTGAG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_GCT_CTAGCGCT-GTGTAGAC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_ICO_AGTTCAGG-CCAACAGA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_LS_TCTCTACT-CGCGGTTC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_PIT_CCAAGTCT-AAGGATGA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_PVN_TTCCTGTT-AGTATCTT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT3_VMH_CTCTCGTC-TATAACCT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_AI_CCGTGAAG-CAGTGGAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_GCT_GGCATTCT-CTAGCTTG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_GON_AGCCTCAT-AGTAGAGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_PIT_CGTTAGAA-TTCAGGTC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_POM_TACCGAGG-CCTGAACT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_TNA_TTACAGGA-TGACAAGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_VMH_AATGCCTC-TCGATCCA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_AH_GCCACAGG-CATGCCAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_BSTm_TTACAGGA-TGACAAGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_ICO_CCGTGAAG-CAGTGGAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_LS_GGCATTCT-CTAGCTTG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT5_PVN_AATGCCTC-TCGATCCA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_AI_TGCGGCGT-CCTCGGTA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_GCT_GATCTATC-ATGAGGCT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_GON_CCATTCGA-GTTGTCCG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_ICO_AGCTCGCT-GCAGAATC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_PIT_TTGCCTAG-ACCACTTA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_POM_TAAGGTCA-TGTCGTAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_TNA_CATAATAC-TTCTAACG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_VMH_CGGAACTG-CACTACGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_AH_ATATCTCG-ATCTTAGT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_BSTm_GTTCCAAT-AATTCTGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_LS_ACCTTGGC-GGCCTCAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT6_PVN_GCGCTCTA-GCTCCGAC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_AI_CCGCGGTT-AGCGCTAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_GON_ATCCACTG-AGGTGCGT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_PIT_AAGTCCAA-TATGAGTA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_POM_GGACTTGG-CGCAGACG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_VMH_TTATAACC-GATATCGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_AH_CGTCTGCG-TTCACAAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_BSTm_ACGCACCT-GGTGAAGG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_GCT_CGCTATGT-TCCGACAC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_ICO_GTATGTTC-AACAGGAA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_LS_TACTCATA-CCTGTGGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_PVN_TCGATATC-ACACGAGT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT1_TNA_TATCGCAC-CTTAGTGT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_AI_ACACTAAG-ATCCATAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_GCT_TTCCTGTT-AGTATCTT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_GON_GTCTACAC-GCCAAGGT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_ICO_CCTTCACC-GACGCTCC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_POM_ATTGTGAA-TGCATTGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_TNA_GTGTCGGA-GCTTGCGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_VMH_GCCACAGG-CATGCCAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_AH_GAACCGCG-TGACCTTA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_BSTm_AACAGGTT-ATACCAAG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_LS_GGTGAACC-GCGTTGGA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_PIT_ACTCGTGT-ATTGGAAC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT10_PVN_CAACAATG-CTTCACGG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_AI_ATATGGAT-CTGTATTA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_GCT_AAGATACT-ACTTACAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_GON_ACCTTGGC-GGCCTCAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_ICO_GGAGCGTC-GTCCGTGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_PIT_GTTCCAAT-AATTCTGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_POM_GCAATGCA-GGAACGTT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_TNA_GCGCAAGC-TCACGCCG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_VMH_ATGGCATG-AAGGTACC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_AH_ATATGGAT-CTGTATTA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_BSTm_TAAGTGGT-CTTAAGCC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_LS_CGGACAAC-TCCGGATT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT12_PVN_GCGCAAGC-TCACGCCG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_AI_GGTACCTT-AAGACGTC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_GCT_GCAGAATT-ACCGGCCA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_GON_TCCAACGC-TTGGACTT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_ICO_ATGAGGCC-GTTAATTG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_PIT_CTTGGTAT-CCAAGTCC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_POM_GTCGGAGC-GGTTATAA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_TNA_AACGTTCC-GGAGTACT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_VMH_ACTAAGAT-AACCGCGG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_AH_CTTGGTAT-CCAAGTCC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_BSTm_ACTAAGAT-AACCGCGG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_LS_GTCGGAGC-GGTTATAA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT2_PVN_TCCAACGC-TTGGACTT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_AI_ATATCTCG-ATCTTAGT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_GCT_AACAGGTT-ATACCAAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_GON_GAATGAGA-GAGGCATT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_ICO_GGTGAACC-GCGTTGGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_PIT_AGGCAGAG-AGAATGCC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_POM_TGGTGGCA-TCCTGTAA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_TNA_GCGCTCTA-GCTCCGAC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_VMH_CAACAATG-CTTCACGG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_AH_ATGGCATG-AAGGTACC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_BSTm_AAGATACT-ACTTACAT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_LS_GGAGCGTC-GTCCGTGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT4_PVN_GCAATGCA-GGAACGTT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_AI_AGTTCAGG-CCAACAGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_GON_GGCTTAAG-TCGTGACC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_ICO_TCTCTACT-CGCGGTTC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_PIT_TTGGACTC-GGAAGCAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_POM_CCAAGTCT-AAGGATGA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_TNA_GACCTGAA-TTGGTGAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_VMH_CTCTCGTC-TATAACCT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_AH_TAATACAG-ATATTCAC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_BSTm_GGCTTAAG-TCGTGACC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_GCT_TTGGACTC-GGAAGCAG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_LS_AATCCGGA-CTACAGTT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT7_PVN_CGGCGTGA-GCGCCTGT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_AI_GATTCTGC-GACGAGAG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_GCT_TCGTAGTG-AGACTTGG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_GON_CGGACAAC-TCCGGATT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_POM_TAAGTGGT-CTTAAGCC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_VMH_CTACGACA-GAGTCCAA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_AH_ATTGTGAA-TGCATTGC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_BSTm_AGCCTCAT-AGTAGAGA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_ICO_CGTTAGAA-TTCAGGTC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_LS_GATTCTGC-GACGAGAG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_PIT_CTACGACA-GAGTCCAA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_PVN_TCGTAGTG-AGACTTGG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT8_TNA_TACCGAGG-CCTGAACT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_AI_CAATTAAC-CGAGATAT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_GCT_AGTACTCC-AACCTGTT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_GON_ACAGGCGC-CTCTGCCT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_POM_TGCGAGAC-CATTGTTG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_TNA_TGGCCGGT-TAGAGCGC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_VMH_GACGTCTT-GGTTCACC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_AH_CTCACCAA-CTAGGCAA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_BSTm_AGGCAGAG-AGAATGCC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_ICO_TGGTGGCA-TCCTGTAA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_LS_GAATGAGA-GAGGCATT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_PIT_CATAGAGT-TGCCACCA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT11_PVN_TGCGGCGT-CCTCGGTA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_AI_AATCCGGA-CTACAGTT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_GON_GCACGGAC-GTCTCGCA_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_PIT_ATGTAAGT-ACTCTATG_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_POM_CGGCGTGA-GCGCCTGT_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_VMH_TAATACAG-ATATTCAC_run1_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_AH_CCTTCACC-GACGCTCC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_BSTm_AACGTTCC-GGAGTACT_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_GCT_GCACGGAC-GTCTCGCA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_ICO_GGTACCTT-AAGACGTC_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_LS_GCAGAATT-ACCGGCCA_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_PVN_ATGAGGCC-GTTAATTG_run2_L00M_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>PFT9_TNA_ATGTAAGT-ACTCTATG_run2_L00M_R1_001.fastq.gz</t>
+    <t>PFT3_GON_TGGATCGA-GTGCGATA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_POM_CAAGCTAG-ACATAGCG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_TNA_GCTTGTCA-GAACATAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_AI_CCGTGAAG-CAGTGGAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_GCT_GGCATTCT-CTAGCTTG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_GON_AGCCTCAT-AGTAGAGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_PIT_CGTTAGAA-TTCAGGTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_POM_TACCGAGG-CCTGAACT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_TNA_TTACAGGA-TGACAAGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_VMH_AATGCCTC-TCGATCCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_AI_TGCGGCGT-CCTCGGTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_GCT_GATCTATC-ATGAGGCT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_GON_CCATTCGA-GTTGTCCG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_ICO_AGCTCGCT-GCAGAATC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_PIT_TTGCCTAG-ACCACTTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_POM_TAAGGTCA-TGTCGTAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_TNA_CATAATAC-TTCTAACG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_VMH_CGGAACTG-CACTACGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_AI_CCGCGGTT-AGCGCTAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_GON_ATCCACTG-AGGTGCGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_PIT_AAGTCCAA-TATGAGTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_POM_GGACTTGG-CGCAGACG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_VMH_TTATAACC-GATATCGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_AI_ACACTAAG-ATCCATAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_GCT_TTCCTGTT-AGTATCTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_GON_GTCTACAC-GCCAAGGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_ICO_CCTTCACC-GACGCTCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_POM_ATTGTGAA-TGCATTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_TNA_GTGTCGGA-GCTTGCGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_VMH_GCCACAGG-CATGCCAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_AI_ATATGGAT-CTGTATTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_GCT_AAGATACT-ACTTACAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_GON_ACCTTGGC-GGCCTCAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_ICO_GGAGCGTC-GTCCGTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_PIT_GTTCCAAT-AATTCTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_POM_GCAATGCA-GGAACGTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_TNA_GCGCAAGC-TCACGCCG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_VMH_ATGGCATG-AAGGTACC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_AI_GGTACCTT-AAGACGTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_GCT_GCAGAATT-ACCGGCCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_GON_TCCAACGC-TTGGACTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_ICO_ATGAGGCC-GTTAATTG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_PIT_CTTGGTAT-CCAAGTCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_POM_GTCGGAGC-GGTTATAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_TNA_AACGTTCC-GGAGTACT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_VMH_ACTAAGAT-AACCGCGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_AI_ATATCTCG-ATCTTAGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_GCT_AACAGGTT-ATACCAAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_GON_GAATGAGA-GAGGCATT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_ICO_GGTGAACC-GCGTTGGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_PIT_AGGCAGAG-AGAATGCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_POM_TGGTGGCA-TCCTGTAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_TNA_GCGCTCTA-GCTCCGAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_VMH_CAACAATG-CTTCACGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_AI_AGTTCAGG-CCAACAGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_GON_GGCTTAAG-TCGTGACC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_ICO_TCTCTACT-CGCGGTTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_PIT_TTGGACTC-GGAAGCAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_POM_CCAAGTCT-AAGGATGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_TNA_GACCTGAA-TTGGTGAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_VMH_CTCTCGTC-TATAACCT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_AI_GATTCTGC-GACGAGAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_GCT_TCGTAGTG-AGACTTGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_GON_CGGACAAC-TCCGGATT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_POM_TAAGTGGT-CTTAAGCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_VMH_CTACGACA-GAGTCCAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_AI_CAATTAAC-CGAGATAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_GCT_AGTACTCC-AACCTGTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_GON_ACAGGCGC-CTCTGCCT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_POM_TGCGAGAC-CATTGTTG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_TNA_TGGCCGGT-TAGAGCGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_VMH_GACGTCTT-GGTTCACC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_AI_AATCCGGA-CTACAGTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_GON_GCACGGAC-GTCTCGCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_PIT_ATGTAAGT-ACTCTATG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_POM_CGGCGTGA-GCGCCTGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_VMH_TAATACAG-ATATTCAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_AH_GTGTCGGA-GCTTGCGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_AI_ACACTAAG-ATCCATAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_BSTm_GACCTGAA-TTGGTGAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_GCT_CTAGCGCT-GTGTAGAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_ICO_AGTTCAGG-CCAACAGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_LS_TCTCTACT-CGCGGTTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_PIT_CCAAGTCT-AAGGATGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_PVN_TTCCTGTT-AGTATCTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT3_VMH_CTCTCGTC-TATAACCT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_AH_GCCACAGG-CATGCCAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_BSTm_TTACAGGA-TGACAAGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_ICO_CCGTGAAG-CAGTGGAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_LS_GGCATTCT-CTAGCTTG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT5_PVN_AATGCCTC-TCGATCCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_AH_ATATCTCG-ATCTTAGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_BSTm_GTTCCAAT-AATTCTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_LS_ACCTTGGC-GGCCTCAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT6_PVN_GCGCTCTA-GCTCCGAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_AH_CGTCTGCG-TTCACAAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_BSTm_ACGCACCT-GGTGAAGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_GCT_CGCTATGT-TCCGACAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_ICO_GTATGTTC-AACAGGAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_LS_TACTCATA-CCTGTGGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_PVN_TCGATATC-ACACGAGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT1_TNA_TATCGCAC-CTTAGTGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_AH_GAACCGCG-TGACCTTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_BSTm_AACAGGTT-ATACCAAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_LS_GGTGAACC-GCGTTGGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_PIT_ACTCGTGT-ATTGGAAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT10_PVN_CAACAATG-CTTCACGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_AH_ATATGGAT-CTGTATTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_BSTm_TAAGTGGT-CTTAAGCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_LS_CGGACAAC-TCCGGATT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT12_PVN_GCGCAAGC-TCACGCCG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_AH_CTTGGTAT-CCAAGTCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_BSTm_ACTAAGAT-AACCGCGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_LS_GTCGGAGC-GGTTATAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT2_PVN_TCCAACGC-TTGGACTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_AH_ATGGCATG-AAGGTACC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_BSTm_AAGATACT-ACTTACAT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_LS_GGAGCGTC-GTCCGTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT4_PVN_GCAATGCA-GGAACGTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_AH_TAATACAG-ATATTCAC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_BSTm_GGCTTAAG-TCGTGACC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_GCT_TTGGACTC-GGAAGCAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_LS_AATCCGGA-CTACAGTT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT7_PVN_CGGCGTGA-GCGCCTGT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_AH_ATTGTGAA-TGCATTGC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_BSTm_AGCCTCAT-AGTAGAGA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_ICO_CGTTAGAA-TTCAGGTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_LS_GATTCTGC-GACGAGAG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_PIT_CTACGACA-GAGTCCAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_PVN_TCGTAGTG-AGACTTGG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT8_TNA_TACCGAGG-CCTGAACT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_AH_CTCACCAA-CTAGGCAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_BSTm_AGGCAGAG-AGAATGCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_ICO_TGGTGGCA-TCCTGTAA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_LS_GAATGAGA-GAGGCATT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_PIT_CATAGAGT-TGCCACCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT11_PVN_TGCGGCGT-CCTCGGTA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_AH_CCTTCACC-GACGCTCC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_BSTm_AACGTTCC-GGAGTACT_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_GCT_GCACGGAC-GTCTCGCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_ICO_GGTACCTT-AAGACGTC_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_LS_GCAGAATT-ACCGGCCA_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_PVN_ATGAGGCC-GTTAATTG_L00M_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>PFT9_TNA_ATGTAAGT-ACTCTATG_L00M_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -2958,13 +2958,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3745,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L2" sqref="L2:L145"/>
     </sheetView>
@@ -3971,7 +3971,7 @@
         <v>405</v>
       </c>
       <c r="L5" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15">
@@ -4009,7 +4009,7 @@
         <v>405</v>
       </c>
       <c r="L6" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15">
@@ -4047,7 +4047,7 @@
         <v>405</v>
       </c>
       <c r="L7" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15">
@@ -4085,7 +4085,7 @@
         <v>405</v>
       </c>
       <c r="L8" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15">
@@ -4123,7 +4123,7 @@
         <v>405</v>
       </c>
       <c r="L9" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15">
@@ -4161,7 +4161,7 @@
         <v>405</v>
       </c>
       <c r="L10" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15">
@@ -4199,7 +4199,7 @@
         <v>405</v>
       </c>
       <c r="L11" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15">
@@ -4237,7 +4237,7 @@
         <v>405</v>
       </c>
       <c r="L12" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15">
@@ -4275,7 +4275,7 @@
         <v>405</v>
       </c>
       <c r="L13" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15">
@@ -4313,7 +4313,7 @@
         <v>405</v>
       </c>
       <c r="L14" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15">
@@ -4351,7 +4351,7 @@
         <v>405</v>
       </c>
       <c r="L15" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15">
@@ -4389,7 +4389,7 @@
         <v>405</v>
       </c>
       <c r="L16" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15">
@@ -4427,7 +4427,7 @@
         <v>405</v>
       </c>
       <c r="L17" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15">
@@ -4465,7 +4465,7 @@
         <v>405</v>
       </c>
       <c r="L18" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15">
@@ -4503,7 +4503,7 @@
         <v>405</v>
       </c>
       <c r="L19" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15">
@@ -4541,7 +4541,7 @@
         <v>405</v>
       </c>
       <c r="L20" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15">
@@ -4579,7 +4579,7 @@
         <v>405</v>
       </c>
       <c r="L21" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15">
@@ -4617,7 +4617,7 @@
         <v>405</v>
       </c>
       <c r="L22" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15">
@@ -4655,7 +4655,7 @@
         <v>405</v>
       </c>
       <c r="L23" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15">
@@ -4693,7 +4693,7 @@
         <v>405</v>
       </c>
       <c r="L24" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15">
@@ -4731,7 +4731,7 @@
         <v>405</v>
       </c>
       <c r="L25" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15">
@@ -4769,7 +4769,7 @@
         <v>405</v>
       </c>
       <c r="L26" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15">
@@ -4807,7 +4807,7 @@
         <v>405</v>
       </c>
       <c r="L27" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15">
@@ -4845,7 +4845,7 @@
         <v>405</v>
       </c>
       <c r="L28" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15">
@@ -4883,7 +4883,7 @@
         <v>405</v>
       </c>
       <c r="L29" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15">
@@ -4921,7 +4921,7 @@
         <v>405</v>
       </c>
       <c r="L30" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15">
@@ -4959,7 +4959,7 @@
         <v>405</v>
       </c>
       <c r="L31" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15">
@@ -4997,7 +4997,7 @@
         <v>405</v>
       </c>
       <c r="L32" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15">
@@ -5035,7 +5035,7 @@
         <v>405</v>
       </c>
       <c r="L33" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15">
@@ -5073,7 +5073,7 @@
         <v>405</v>
       </c>
       <c r="L34" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15">
@@ -5111,7 +5111,7 @@
         <v>405</v>
       </c>
       <c r="L35" t="s">
-        <v>596</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15">
@@ -5149,7 +5149,7 @@
         <v>405</v>
       </c>
       <c r="L36" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15">
@@ -5187,7 +5187,7 @@
         <v>405</v>
       </c>
       <c r="L37" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15">
@@ -5225,7 +5225,7 @@
         <v>405</v>
       </c>
       <c r="L38" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15">
@@ -5263,7 +5263,7 @@
         <v>405</v>
       </c>
       <c r="L39" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15">
@@ -5301,7 +5301,7 @@
         <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15">
@@ -5339,7 +5339,7 @@
         <v>405</v>
       </c>
       <c r="L41" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15">
@@ -5377,7 +5377,7 @@
         <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15">
@@ -5415,7 +5415,7 @@
         <v>405</v>
       </c>
       <c r="L43" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15">
@@ -5453,7 +5453,7 @@
         <v>405</v>
       </c>
       <c r="L44" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15">
@@ -5491,7 +5491,7 @@
         <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15">
@@ -5529,7 +5529,7 @@
         <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15">
@@ -5567,7 +5567,7 @@
         <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15">
@@ -5605,7 +5605,7 @@
         <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15">
@@ -5643,7 +5643,7 @@
         <v>405</v>
       </c>
       <c r="L49" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15">
@@ -5681,7 +5681,7 @@
         <v>405</v>
       </c>
       <c r="L50" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15">
@@ -5719,7 +5719,7 @@
         <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15">
@@ -5757,7 +5757,7 @@
         <v>405</v>
       </c>
       <c r="L52" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15">
@@ -5795,7 +5795,7 @@
         <v>405</v>
       </c>
       <c r="L53" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15">
@@ -5833,7 +5833,7 @@
         <v>405</v>
       </c>
       <c r="L54" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15">
@@ -5871,7 +5871,7 @@
         <v>405</v>
       </c>
       <c r="L55" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15">
@@ -5909,7 +5909,7 @@
         <v>405</v>
       </c>
       <c r="L56" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15">
@@ -5947,7 +5947,7 @@
         <v>405</v>
       </c>
       <c r="L57" t="s">
-        <v>618</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15">
@@ -5985,7 +5985,7 @@
         <v>405</v>
       </c>
       <c r="L58" t="s">
-        <v>619</v>
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15">
@@ -6023,7 +6023,7 @@
         <v>405</v>
       </c>
       <c r="L59" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15">
@@ -6061,7 +6061,7 @@
         <v>405</v>
       </c>
       <c r="L60" t="s">
-        <v>621</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15">
@@ -6099,7 +6099,7 @@
         <v>405</v>
       </c>
       <c r="L61" t="s">
-        <v>622</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15">
@@ -6137,7 +6137,7 @@
         <v>405</v>
       </c>
       <c r="L62" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15">
@@ -6175,7 +6175,7 @@
         <v>405</v>
       </c>
       <c r="L63" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15">
@@ -6213,7 +6213,7 @@
         <v>405</v>
       </c>
       <c r="L64" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15">
@@ -6251,7 +6251,7 @@
         <v>405</v>
       </c>
       <c r="L65" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15">
@@ -6289,7 +6289,7 @@
         <v>405</v>
       </c>
       <c r="L66" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15">
@@ -6327,7 +6327,7 @@
         <v>405</v>
       </c>
       <c r="L67" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15">
@@ -6365,7 +6365,7 @@
         <v>405</v>
       </c>
       <c r="L68" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15">
@@ -6403,7 +6403,7 @@
         <v>405</v>
       </c>
       <c r="L69" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15">
@@ -6441,7 +6441,7 @@
         <v>405</v>
       </c>
       <c r="L70" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15">
@@ -6479,7 +6479,7 @@
         <v>405</v>
       </c>
       <c r="L71" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15">
@@ -6517,7 +6517,7 @@
         <v>405</v>
       </c>
       <c r="L72" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15">
@@ -6555,7 +6555,7 @@
         <v>405</v>
       </c>
       <c r="L73" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15">
@@ -6593,7 +6593,7 @@
         <v>405</v>
       </c>
       <c r="L74" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15">
@@ -6631,7 +6631,7 @@
         <v>405</v>
       </c>
       <c r="L75" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15">
@@ -6669,7 +6669,7 @@
         <v>405</v>
       </c>
       <c r="L76" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15">
@@ -6707,7 +6707,7 @@
         <v>405</v>
       </c>
       <c r="L77" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15">
@@ -6745,7 +6745,7 @@
         <v>405</v>
       </c>
       <c r="L78" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15">
@@ -6783,7 +6783,7 @@
         <v>405</v>
       </c>
       <c r="L79" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15">
@@ -6821,7 +6821,7 @@
         <v>405</v>
       </c>
       <c r="L80" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15">
@@ -6859,7 +6859,7 @@
         <v>405</v>
       </c>
       <c r="L81" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15">
@@ -6897,7 +6897,7 @@
         <v>405</v>
       </c>
       <c r="L82" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15">
@@ -6935,7 +6935,7 @@
         <v>405</v>
       </c>
       <c r="L83" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15">
@@ -6973,7 +6973,7 @@
         <v>405</v>
       </c>
       <c r="L84" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15">
@@ -7011,7 +7011,7 @@
         <v>405</v>
       </c>
       <c r="L85" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15">
@@ -7049,7 +7049,7 @@
         <v>405</v>
       </c>
       <c r="L86" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15">
@@ -7087,7 +7087,7 @@
         <v>405</v>
       </c>
       <c r="L87" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15">
@@ -7125,7 +7125,7 @@
         <v>405</v>
       </c>
       <c r="L88" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15">
@@ -7163,7 +7163,7 @@
         <v>405</v>
       </c>
       <c r="L89" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15">
@@ -7201,7 +7201,7 @@
         <v>405</v>
       </c>
       <c r="L90" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15">
@@ -7239,7 +7239,7 @@
         <v>405</v>
       </c>
       <c r="L91" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15">
@@ -7277,7 +7277,7 @@
         <v>405</v>
       </c>
       <c r="L92" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15">
@@ -7315,7 +7315,7 @@
         <v>405</v>
       </c>
       <c r="L93" t="s">
-        <v>654</v>
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15">
@@ -7353,7 +7353,7 @@
         <v>405</v>
       </c>
       <c r="L94" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15">
@@ -7391,7 +7391,7 @@
         <v>405</v>
       </c>
       <c r="L95" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15">
@@ -7429,7 +7429,7 @@
         <v>405</v>
       </c>
       <c r="L96" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15">
@@ -7467,7 +7467,7 @@
         <v>405</v>
       </c>
       <c r="L97" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15">
@@ -7505,7 +7505,7 @@
         <v>405</v>
       </c>
       <c r="L98" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15">
@@ -7543,7 +7543,7 @@
         <v>405</v>
       </c>
       <c r="L99" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15">
@@ -7581,7 +7581,7 @@
         <v>405</v>
       </c>
       <c r="L100" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15">
@@ -7619,7 +7619,7 @@
         <v>405</v>
       </c>
       <c r="L101" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15">
@@ -7657,7 +7657,7 @@
         <v>405</v>
       </c>
       <c r="L102" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15">
@@ -7695,7 +7695,7 @@
         <v>405</v>
       </c>
       <c r="L103" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15">
@@ -7733,7 +7733,7 @@
         <v>405</v>
       </c>
       <c r="L104" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15">
@@ -7771,7 +7771,7 @@
         <v>405</v>
       </c>
       <c r="L105" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15">
@@ -7809,7 +7809,7 @@
         <v>405</v>
       </c>
       <c r="L106" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15">
@@ -7847,7 +7847,7 @@
         <v>405</v>
       </c>
       <c r="L107" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15">
@@ -7885,7 +7885,7 @@
         <v>405</v>
       </c>
       <c r="L108" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15">
@@ -7923,7 +7923,7 @@
         <v>405</v>
       </c>
       <c r="L109" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15">
@@ -7961,7 +7961,7 @@
         <v>405</v>
       </c>
       <c r="L110" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15">
@@ -7999,7 +7999,7 @@
         <v>405</v>
       </c>
       <c r="L111" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15">
@@ -8037,7 +8037,7 @@
         <v>405</v>
       </c>
       <c r="L112" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15">
@@ -8075,7 +8075,7 @@
         <v>405</v>
       </c>
       <c r="L113" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15">
@@ -8113,7 +8113,7 @@
         <v>405</v>
       </c>
       <c r="L114" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15">
@@ -8151,7 +8151,7 @@
         <v>405</v>
       </c>
       <c r="L115" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15">
@@ -8189,7 +8189,7 @@
         <v>405</v>
       </c>
       <c r="L116" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15">
@@ -8227,7 +8227,7 @@
         <v>405</v>
       </c>
       <c r="L117" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="15">
@@ -8265,7 +8265,7 @@
         <v>405</v>
       </c>
       <c r="L118" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15">
@@ -8303,7 +8303,7 @@
         <v>405</v>
       </c>
       <c r="L119" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15">
@@ -8341,7 +8341,7 @@
         <v>405</v>
       </c>
       <c r="L120" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15">
@@ -8379,7 +8379,7 @@
         <v>405</v>
       </c>
       <c r="L121" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15">
@@ -8417,7 +8417,7 @@
         <v>405</v>
       </c>
       <c r="L122" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15">
@@ -8455,7 +8455,7 @@
         <v>405</v>
       </c>
       <c r="L123" t="s">
-        <v>684</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15">
@@ -8493,7 +8493,7 @@
         <v>405</v>
       </c>
       <c r="L124" t="s">
-        <v>685</v>
+        <v>631</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="15">
@@ -8531,7 +8531,7 @@
         <v>405</v>
       </c>
       <c r="L125" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15">
@@ -8569,7 +8569,7 @@
         <v>405</v>
       </c>
       <c r="L126" t="s">
-        <v>687</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15">
@@ -8607,7 +8607,7 @@
         <v>405</v>
       </c>
       <c r="L127" t="s">
-        <v>688</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15">
@@ -8645,7 +8645,7 @@
         <v>405</v>
       </c>
       <c r="L128" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15">
@@ -8683,7 +8683,7 @@
         <v>405</v>
       </c>
       <c r="L129" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15">
@@ -8721,7 +8721,7 @@
         <v>405</v>
       </c>
       <c r="L130" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15">
@@ -8759,7 +8759,7 @@
         <v>405</v>
       </c>
       <c r="L131" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15">
@@ -8797,7 +8797,7 @@
         <v>405</v>
       </c>
       <c r="L132" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15">
@@ -8835,7 +8835,7 @@
         <v>405</v>
       </c>
       <c r="L133" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15">
@@ -8873,7 +8873,7 @@
         <v>405</v>
       </c>
       <c r="L134" t="s">
-        <v>695</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15">
@@ -8911,7 +8911,7 @@
         <v>405</v>
       </c>
       <c r="L135" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15">
@@ -8949,7 +8949,7 @@
         <v>405</v>
       </c>
       <c r="L136" t="s">
-        <v>697</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15">
@@ -8987,7 +8987,7 @@
         <v>405</v>
       </c>
       <c r="L137" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15">
@@ -9025,7 +9025,7 @@
         <v>405</v>
       </c>
       <c r="L138" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15">
@@ -10617,8 +10617,8 @@
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -10945,8 +10945,8 @@
       <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40" s="31" t="s">
@@ -11029,7 +11029,7 @@
       <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
@@ -11623,38 +11623,25 @@
     <sortCondition ref="J87"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -11667,25 +11654,38 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
